--- a/data/names_and_ages_missing_val.xlsx
+++ b/data/names_and_ages_missing_val.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\PySpark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0D0799-9255-417D-8779-B5C8D1620B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E824038-6B93-4ED8-881A-2E3434BA1C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -77,15 +77,9 @@
     <t>Leo</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
     <t>Nathan</t>
   </si>
   <si>
-    <t>Olivia</t>
-  </si>
-  <si>
     <t>Paul</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>Taylor</t>
-  </si>
-  <si>
-    <t>Ulysses</t>
   </si>
   <si>
     <t>Victoria</t>
@@ -266,7 +257,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -576,7 +567,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,7 +602,7 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1500,10000)</f>
-        <v>3835</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +617,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D50" ca="1" si="0">RANDBETWEEN(1500,10000)</f>
-        <v>5520</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,7 +632,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>5268</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,7 +647,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>3314</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,23 +662,13 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>9271</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>4961</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -701,7 +682,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>6388</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,22 +697,19 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>2112</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>27</v>
-      </c>
       <c r="C10">
         <v>25</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>6510</v>
+        <v>9129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,13 +719,6 @@
       <c r="B11">
         <v>33</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1652</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -761,7 +732,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>9000</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,13 +747,10 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>8362</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
       <c r="B14">
         <v>31</v>
       </c>
@@ -791,28 +759,22 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>5180</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>37</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>3679</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
       <c r="B16">
         <v>24</v>
       </c>
@@ -821,12 +783,12 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>9435</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>38</v>
@@ -836,12 +798,12 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>2178</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -851,12 +813,12 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>8670</v>
+        <v>8890</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>34</v>
@@ -866,43 +828,34 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>5535</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>4515</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>36</v>
       </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>9660</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
       <c r="B22">
         <v>42</v>
       </c>
@@ -911,12 +864,12 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>5495</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -926,27 +879,24 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>3902</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>5663</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -956,12 +906,12 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>1973</v>
+        <v>7977</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>31</v>
@@ -971,12 +921,12 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>5858</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -986,12 +936,12 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>7371</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -1001,12 +951,12 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>8156</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>32</v>
@@ -1016,12 +966,12 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>7614</v>
+        <v>9328</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>23</v>
@@ -1031,12 +981,12 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>9529</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>35</v>
@@ -1046,12 +996,12 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>5249</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>27</v>
@@ -1061,12 +1011,12 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>6786</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -1076,12 +1026,12 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>4710</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>24</v>
@@ -1091,12 +1041,12 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>9643</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -1106,12 +1056,12 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>4820</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -1121,12 +1071,12 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>9324</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>28</v>
@@ -1136,12 +1086,12 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>6874</v>
+        <v>8994</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>25</v>
@@ -1151,12 +1101,12 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>8050</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>31</v>
@@ -1166,12 +1116,12 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>7371</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>22</v>
@@ -1181,12 +1131,12 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>6165</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -1196,12 +1146,12 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>4442</v>
+        <v>7967</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>39</v>
@@ -1211,12 +1161,12 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>3014</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>34</v>
@@ -1226,12 +1176,12 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>8927</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>29</v>
@@ -1241,12 +1191,12 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>4066</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>41</v>
@@ -1256,12 +1206,12 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>3190</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>40</v>
@@ -1271,12 +1221,12 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>6910</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>26</v>
@@ -1286,12 +1236,12 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="0"/>
-        <v>9361</v>
+        <v>9536</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>30</v>
@@ -1301,12 +1251,12 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="0"/>
-        <v>5269</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>33</v>
@@ -1316,12 +1266,12 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="0"/>
-        <v>6461</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>28</v>
@@ -1331,7 +1281,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="0"/>
-        <v>8716</v>
+        <v>6777</v>
       </c>
     </row>
   </sheetData>

--- a/data/names_and_ages_missing_val.xlsx
+++ b/data/names_and_ages_missing_val.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\PySpark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E824038-6B93-4ED8-881A-2E3434BA1C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC7AA54-9239-4FD2-B842-5147460FB43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -183,13 +206,52 @@
   </si>
   <si>
     <t>Salary(USD)</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Sales Associate</t>
+  </si>
+  <si>
+    <t>Marketing Manager</t>
+  </si>
+  <si>
+    <t>Financial Analyst</t>
+  </si>
+  <si>
+    <t>Human Resources Specialist</t>
+  </si>
+  <si>
+    <t>Customer Service Representative</t>
+  </si>
+  <si>
+    <t>Graphic Designer</t>
+  </si>
+  <si>
+    <t>Operations Manager</t>
+  </si>
+  <si>
+    <t>ID job</t>
+  </si>
+  <si>
+    <t>Current Position</t>
+  </si>
+  <si>
+    <t>ID Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +267,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -237,17 +305,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -257,9 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +631,7 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,11 +641,17 @@
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -602,10 +663,18 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1500,10000)</f>
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9666</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="F2" t="str" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E2)</f>
+        <v>Project Manager</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -617,10 +686,18 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D50" ca="1" si="0">RANDBETWEEN(1500,10000)</f>
-        <v>6503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7226</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E50" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" t="str" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E3)</f>
+        <v>Marketing Manager</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -632,10 +709,18 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>6914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7484</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F4" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E4)</f>
+        <v>Operations Manager</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -647,10 +732,10 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>8108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -662,15 +747,31 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>5268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3170</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F6" t="str" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E6)</f>
+        <v>Customer Service Representative</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="str" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E7)</f>
+        <v>Software Engineer</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -682,10 +783,18 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>6035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4815</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F8" t="str" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E8)</f>
+        <v>Customer Service Representative</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -697,10 +806,18 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>7443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8611</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F9" t="str" cm="1">
+        <f t="array" aca="1" ref="F9" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E9)</f>
+        <v>Graphic Designer</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -709,18 +826,26 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>9129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F11" t="str" cm="1">
+        <f t="array" aca="1" ref="F11" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E11)</f>
+        <v>Graphic Designer</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -732,10 +857,18 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>6901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5347</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F12" t="str" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E12)</f>
+        <v>Financial Analyst</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -747,10 +880,18 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>5013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6668</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F13" t="str" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E13)</f>
+        <v>Sales Associate</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>31</v>
       </c>
@@ -759,10 +900,18 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2706</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F14" t="str" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E14)</f>
+        <v>Marketing Manager</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -771,10 +920,18 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>5647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6894</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E15)</f>
+        <v>Data Scientist</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>24</v>
       </c>
@@ -783,10 +940,18 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>7004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6806</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F16" t="str" cm="1">
+        <f t="array" aca="1" ref="F16" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E16)</f>
+        <v>Data Scientist</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -798,10 +963,18 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>7891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3162</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E17)</f>
+        <v>Software Engineer</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -813,10 +986,18 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>8890</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8665</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F18" t="str" cm="1">
+        <f t="array" aca="1" ref="F18" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E18)</f>
+        <v>Marketing Manager</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -828,10 +1009,18 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5624</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F19" t="str" cm="1">
+        <f t="array" aca="1" ref="F19" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E19)</f>
+        <v>Customer Service Representative</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -840,10 +1029,18 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>4916</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4723</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F20" t="str" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E20)</f>
+        <v>Operations Manager</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -852,10 +1049,18 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>5554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4320</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F21" t="str" cm="1">
+        <f t="array" aca="1" ref="F21" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E21)</f>
+        <v>Project Manager</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>42</v>
       </c>
@@ -864,10 +1069,18 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2337</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F22" t="str" cm="1">
+        <f t="array" aca="1" ref="F22" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E22)</f>
+        <v>Financial Analyst</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -879,10 +1092,18 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>6827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1763</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F23" t="str" cm="1">
+        <f t="array" aca="1" ref="F23" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E23)</f>
+        <v>Customer Service Representative</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -891,10 +1112,18 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>4873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5237</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F24" t="str" cm="1">
+        <f t="array" aca="1" ref="F24" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E24)</f>
+        <v>Data Scientist</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -906,10 +1135,18 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>7977</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4330</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="str" cm="1">
+        <f t="array" aca="1" ref="F25" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E25)</f>
+        <v>Software Engineer</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -921,10 +1158,18 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>3342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2379</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F26" t="str" cm="1">
+        <f t="array" aca="1" ref="F26" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E26)</f>
+        <v>Customer Service Representative</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -936,10 +1181,18 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>5914</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5741</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F27" t="str" cm="1">
+        <f t="array" aca="1" ref="F27" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E27)</f>
+        <v>Operations Manager</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -951,10 +1204,18 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7638</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F28" t="str" cm="1">
+        <f t="array" aca="1" ref="F28" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E28)</f>
+        <v>Customer Service Representative</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -966,10 +1227,18 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>9328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8346</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F29" t="str" cm="1">
+        <f t="array" aca="1" ref="F29" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E29)</f>
+        <v>Customer Service Representative</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -981,10 +1250,18 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7151</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F30" t="str" cm="1">
+        <f t="array" aca="1" ref="F30" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E30)</f>
+        <v>Human Resources Specialist</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -996,10 +1273,18 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>6377</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3856</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F31" t="str" cm="1">
+        <f t="array" aca="1" ref="F31" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E31)</f>
+        <v>Customer Service Representative</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1011,10 +1296,18 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>4534</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7092</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F32" t="str" cm="1">
+        <f t="array" aca="1" ref="F32" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E32)</f>
+        <v>Software Engineer</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1026,10 +1319,18 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>3498</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4564</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F33" t="str" cm="1">
+        <f t="array" aca="1" ref="F33" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E33)</f>
+        <v>Project Manager</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1041,10 +1342,18 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>5986</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1988</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F34" t="str" cm="1">
+        <f t="array" aca="1" ref="F34" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E34)</f>
+        <v>Project Manager</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1056,10 +1365,18 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>5233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3617</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F35" t="str" cm="1">
+        <f t="array" aca="1" ref="F35" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E35)</f>
+        <v>Marketing Manager</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1071,10 +1388,18 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>6269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5975</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F36" t="str" cm="1">
+        <f t="array" aca="1" ref="F36" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E36)</f>
+        <v>Graphic Designer</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1086,10 +1411,18 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>8994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5687</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F37" t="str" cm="1">
+        <f t="array" aca="1" ref="F37" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E37)</f>
+        <v>Project Manager</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1101,10 +1434,18 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8743</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F38" t="str" cm="1">
+        <f t="array" aca="1" ref="F38" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E38)</f>
+        <v>Marketing Manager</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1116,10 +1457,18 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>6966</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3625</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F39" t="str" cm="1">
+        <f t="array" aca="1" ref="F39" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E39)</f>
+        <v>Human Resources Specialist</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1131,10 +1480,18 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1749</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F40" t="str" cm="1">
+        <f t="array" aca="1" ref="F40" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E40)</f>
+        <v>Financial Analyst</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1146,10 +1503,18 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>7967</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7739</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F41" t="str" cm="1">
+        <f t="array" aca="1" ref="F41" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E41)</f>
+        <v>Marketing Manager</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1161,10 +1526,18 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>6861</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3929</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F42" t="str" cm="1">
+        <f t="array" aca="1" ref="F42" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E42)</f>
+        <v>Data Scientist</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1176,10 +1549,18 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5691</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F43" t="str" cm="1">
+        <f t="array" aca="1" ref="F43" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E43)</f>
+        <v>Human Resources Specialist</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1191,10 +1572,18 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7826</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F44" t="str" cm="1">
+        <f t="array" aca="1" ref="F44" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E44)</f>
+        <v>Graphic Designer</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1206,10 +1595,18 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>6452</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5601</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F45" t="str" cm="1">
+        <f t="array" aca="1" ref="F45" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E45)</f>
+        <v>Software Engineer</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1221,10 +1618,18 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>9372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4599</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F46" t="str" cm="1">
+        <f t="array" aca="1" ref="F46" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E46)</f>
+        <v>Marketing Manager</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1236,10 +1641,18 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="0"/>
-        <v>9536</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F47" t="str" cm="1">
+        <f t="array" aca="1" ref="F47" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E47)</f>
+        <v>Human Resources Specialist</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1251,10 +1664,18 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="0"/>
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4871</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F48" t="str" cm="1">
+        <f t="array" aca="1" ref="F48" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E48)</f>
+        <v>Graphic Designer</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1266,10 +1687,18 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="0"/>
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3713</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F49" t="str" cm="1">
+        <f t="array" aca="1" ref="F49" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E49)</f>
+        <v>Marketing Manager</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1281,10 +1710,122 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="0"/>
-        <v>6777</v>
+        <v>4928</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F50" t="str" cm="1">
+        <f t="array" aca="1" ref="F50" ca="1">INDEX(Hoja1!$B$2:$B$11,Sheet1!E50)</f>
+        <v>Data Scientist</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59840D47-05B3-4AE1-B7B5-24FD15826783}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>